--- a/docker_config/hashicorp_vault/config/config_server(画面操作).xlsx
+++ b/docker_config/hashicorp_vault/config/config_server(画面操作).xlsx
@@ -1,84 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GitHub\temp-mysql\docker_config\hashicorp_vault\config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C0732-A410-418C-B073-BB4E191067BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14880"/>
   </bookViews>
   <sheets>
-    <sheet name="Vault配置" sheetId="1" r:id="rId1"/>
+    <sheet name="#备注" sheetId="4" r:id="rId1"/>
+    <sheet name="1. Vault初期化" sheetId="1" r:id="rId2"/>
+    <sheet name="2. 创建基于Database的Secret(动态用户)" sheetId="2" r:id="rId3"/>
+    <sheet name="3. 创建基于Database的Secret(静态用户)" sheetId="3" r:id="rId4"/>
+    <sheet name="4. 创建基于键值对的Secret" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
-    <t>http://localhost:8200/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1. 同层目录下的「config_server.sh」的处理内容与「2. 创建基于Database的Secret(动态用户)」基本相同</t>
+  </si>
+  <si>
+    <t>处理内容为：</t>
+  </si>
+  <si>
+    <t>启用Secret Engine：database</t>
+  </si>
+  <si>
+    <t>创建DB连接</t>
+  </si>
+  <si>
+    <t>创建Secre(动态用户)</t>
+  </si>
+  <si>
+    <t>生成/获取DB登录用账户密码信息</t>
+  </si>
+  <si>
+    <t>2. 其它创建Secret的方式暂时没有相应的sh文件</t>
   </si>
   <si>
     <t>1. 初期化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8200/</t>
+  </si>
+  <si>
+    <t>Initial root token</t>
   </si>
   <si>
     <t>hvs.iCD2FIxXzxRgS9FVvmzd1Rk9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial root token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Key 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cIYvIY5lECBHWzy5I/PyN46wTQ1EaOfVFONvMuVv19c=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 配置DB连接用动态用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1. 创建用于管理DB账户密码的Database连接</t>
+  </si>
+  <si>
+    <t>2. 创建基于Database的Secret(动态用户)</t>
   </si>
   <si>
     <t>3. 生成DB连接用账号/密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4. 测试DB连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 创建基于Database的Secret(静态用户)</t>
+  </si>
+  <si>
+    <t>** Database连接使用sheet「2. 创建基于Database的Secret(动态用户)」中创建的DB连接</t>
+  </si>
+  <si>
+    <t>1. 启用Secret Engine：KV</t>
+  </si>
+  <si>
+    <t>使用命令「vault secrets enable kv」也可启用Secret Engine：KV</t>
+  </si>
+  <si>
+    <t>2. 添加可用的键值对象</t>
+  </si>
+  <si>
+    <t>使用命令「vault write kv/test_db username=testuser password=testpassword」可以也添加path为「test_db」,两个设定值「username: testuser」, 「password: testpassword」的设定项</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -86,29 +111,357 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -116,71 +469,347 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>122701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B28B42E-380F-4E2F-96AA-A596FEC80BE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="542925"/>
-          <a:ext cx="18285714" cy="8990476"/>
+          <a:off x="1463040" y="711200"/>
+          <a:ext cx="19474180" cy="8834755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -193,30 +822,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638736</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5E9317-44CB-488D-AEB3-19250B70FFAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7474324" y="3653118"/>
-          <a:ext cx="5815852" cy="1725706"/>
+          <a:off x="7953375" y="3800475"/>
+          <a:ext cx="6247765" cy="1711325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,30 +882,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="椭圆 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6266D1-9611-444D-9B96-FC0C05DE4C35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="椭圆 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7418294" y="6477000"/>
-          <a:ext cx="1243853" cy="616324"/>
+          <a:off x="7897495" y="6600825"/>
+          <a:ext cx="1339850" cy="611505"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -332,38 +949,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>6722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD60DF4-CA70-4928-A41A-895AF165D09C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="9861176"/>
-          <a:ext cx="18285714" cy="8971428"/>
+          <a:off x="1463040" y="9956800"/>
+          <a:ext cx="19532600" cy="8896350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -376,30 +987,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC0E745-8CD6-4A0A-B63F-A11C619D5F16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7720853" y="13816852"/>
-          <a:ext cx="4314265" cy="1770529"/>
+          <a:off x="8248015" y="13879195"/>
+          <a:ext cx="4601845" cy="1757045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -442,30 +1047,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="椭圆 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5BCA9D-5FE4-441F-A77C-C0226E01AF2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="椭圆 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7395883" y="16058030"/>
-          <a:ext cx="2028264" cy="616324"/>
+          <a:off x="7875270" y="16102330"/>
+          <a:ext cx="2172335" cy="610870"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -515,38 +1114,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>35294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD6829E-AD9B-42D5-859D-6254E0F10286}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="20260235"/>
-          <a:ext cx="18285714" cy="9000000"/>
+          <a:off x="1463040" y="20269200"/>
+          <a:ext cx="19532600" cy="8924925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,30 +1152,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>51547</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>174812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9565EA8C-4AD1-4E03-AD40-683F59B0D0B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7570694" y="24738106"/>
-          <a:ext cx="5753100" cy="486335"/>
+          <a:off x="8098155" y="24711025"/>
+          <a:ext cx="6136640" cy="481965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -625,30 +1212,24 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="对话气泡: 矩形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F078F7E9-1456-4F49-8BF7-BDDF0E0B1CF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="对话气泡: 矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13682382" y="24283147"/>
-          <a:ext cx="3249706" cy="1210235"/>
+          <a:off x="14641195" y="24258905"/>
+          <a:ext cx="3441700" cy="1199515"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -700,30 +1281,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="椭圆 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3B6B61-9BFD-4843-B613-8CA185EFE96D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="椭圆 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7407088" y="25560618"/>
-          <a:ext cx="1176618" cy="549088"/>
+          <a:off x="7886700" y="25525730"/>
+          <a:ext cx="1272540" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -773,38 +1348,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>35295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9477FF84-C1D2-4787-8712-7A2BA03488E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="29762824"/>
-          <a:ext cx="18285714" cy="9000000"/>
+          <a:off x="1463040" y="29692600"/>
+          <a:ext cx="19532600" cy="8924925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,30 +1386,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>118783</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>51548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F29C794-55BA-4EC1-955E-33EF82722EA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7637930" y="34296724"/>
-          <a:ext cx="5753100" cy="486335"/>
+          <a:off x="8165465" y="34189035"/>
+          <a:ext cx="6136640" cy="481965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -883,30 +1446,24 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="对话气泡: 矩形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7482E9E-DE77-4D5F-A0B6-6694DC75C3A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="对话气泡: 矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13805647" y="33909001"/>
-          <a:ext cx="3249706" cy="1210235"/>
+          <a:off x="14764385" y="33804225"/>
+          <a:ext cx="3441700" cy="1201420"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -958,30 +1515,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>616325</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>425825</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="椭圆 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E74710B-9393-4E07-B8E8-D2EE106F9A3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="椭圆 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7451913" y="34794265"/>
-          <a:ext cx="1176618" cy="549088"/>
+          <a:off x="7931150" y="34681795"/>
+          <a:ext cx="1272540" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1031,38 +1582,75 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>16246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6413D0-5924-4343-A4E5-3AAFF7645E50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="39444706"/>
-          <a:ext cx="18285714" cy="8980952"/>
+          <a:off x="1463040" y="38938200"/>
+          <a:ext cx="19532600" cy="8905875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="533400"/>
+          <a:ext cx="19532600" cy="8905875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,30 +1663,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>616323</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="椭圆 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372E2994-5FE3-410A-8AB5-0C28318333FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="椭圆 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13603941" y="40800618"/>
-          <a:ext cx="1736912" cy="549088"/>
+          <a:off x="14514830" y="1878330"/>
+          <a:ext cx="1880870" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1128,7 +1710,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -1148,38 +1828,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>25770</xdr:rowOff>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6DF584-75E4-4498-B335-056CB71DF923}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图片 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="48947294"/>
-          <a:ext cx="18285714" cy="8990476"/>
+          <a:off x="1463040" y="9956800"/>
+          <a:ext cx="19532600" cy="8915400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,30 +1866,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矩形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F9FA6B-E58D-4E6E-896F-9104859431DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="矩形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3552265" y="53978735"/>
-          <a:ext cx="1120588" cy="1154206"/>
+          <a:off x="3791585" y="14945995"/>
+          <a:ext cx="1169035" cy="1145540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1245,7 +1913,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1258,30 +2024,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="椭圆 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD4C594-E0DD-4898-AE4B-E4B8A311CBE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="椭圆 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2229971" y="55413088"/>
-          <a:ext cx="1232647" cy="549088"/>
+          <a:off x="2373630" y="16368395"/>
+          <a:ext cx="1328420" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1311,7 +2071,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -1331,38 +2189,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>376</xdr:row>
-      <xdr:rowOff>6722</xdr:rowOff>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10720260-8901-44A8-9063-4CF7841015E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="图片 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="58449882"/>
-          <a:ext cx="18285714" cy="8971428"/>
+          <a:off x="1463040" y="19380200"/>
+          <a:ext cx="19532600" cy="8896350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,30 +2227,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="矩形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AE573E-8B0C-40B4-9A36-B4E0C50F011C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="矩形 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2386853" y="60209205"/>
-          <a:ext cx="1367118" cy="481854"/>
+          <a:off x="2530475" y="21125815"/>
+          <a:ext cx="1463040" cy="477520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1428,7 +2274,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1441,30 +2385,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>358589</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="椭圆 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E576C2-630B-401D-B7F2-BEC7259A8AFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="椭圆 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409265" y="62517618"/>
-          <a:ext cx="1232647" cy="549088"/>
+          <a:off x="2552700" y="23414990"/>
+          <a:ext cx="1328420" cy="544195"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1494,7 +2432,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -1514,38 +2550,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>429</xdr:row>
-      <xdr:rowOff>16247</xdr:rowOff>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB212C54-9399-4007-B181-042F43C54967}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="图片 26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="67952471"/>
-          <a:ext cx="18285714" cy="8980952"/>
+          <a:off x="1463040" y="28803600"/>
+          <a:ext cx="19532600" cy="8905875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,30 +2588,24 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>78440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="椭圆 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C7B964-A2A9-49E7-B444-E8917EEF2E64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="椭圆 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13738412" y="69812646"/>
-          <a:ext cx="1546412" cy="549088"/>
+          <a:off x="14697075" y="30648275"/>
+          <a:ext cx="1642745" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1611,7 +2635,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -1631,38 +2753,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>341757</xdr:colOff>
-      <xdr:row>503</xdr:row>
-      <xdr:rowOff>165356</xdr:rowOff>
+      <xdr:colOff>341630</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BA7E0E-09EE-4726-8483-0DAB05A81EF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="图片 28"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="77455059"/>
-          <a:ext cx="18114286" cy="12895238"/>
+          <a:off x="1463040" y="38227000"/>
+          <a:ext cx="19361150" cy="12788900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1675,30 +2791,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>441</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>11204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>549087</xdr:colOff>
-      <xdr:row>443</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="矩形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5B39BB-E2AB-4873-9888-F3D28F7A8BB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="矩形 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2420470" y="79079910"/>
-          <a:ext cx="1546411" cy="515471"/>
+          <a:off x="2564130" y="39837995"/>
+          <a:ext cx="1642110" cy="512445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,7 +2838,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1741,30 +2949,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>392207</xdr:colOff>
-      <xdr:row>445</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>447</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="矩形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0EC188D-7B7A-4A86-9D91-3633D38DD37F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="矩形 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2442883" y="79886735"/>
-          <a:ext cx="963705" cy="403412"/>
+          <a:off x="2586355" y="40638730"/>
+          <a:ext cx="1011555" cy="400685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1794,7 +2996,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1807,30 +3107,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>459</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>461</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="矩形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E0B618-FB0E-4A04-882A-E4613E402E7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="矩形 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409264" y="82296001"/>
-          <a:ext cx="4022912" cy="515470"/>
+          <a:off x="2552700" y="43027600"/>
+          <a:ext cx="4311015" cy="512445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1860,7 +3154,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1873,30 +3265,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>470</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>472</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="矩形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233904D3-1657-4D91-9230-16EF2A0864FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="矩形 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2420471" y="84268235"/>
-          <a:ext cx="1367118" cy="481854"/>
+          <a:off x="2564130" y="44983400"/>
+          <a:ext cx="1463040" cy="478790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,7 +3312,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1939,30 +3423,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>354107</xdr:colOff>
-      <xdr:row>464</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>107576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>354107</xdr:colOff>
-      <xdr:row>467</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>51548</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="矩形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352FB07E-C4FF-4DBB-8656-9AB7B6CFC072}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="矩形 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2404783" y="83300047"/>
-          <a:ext cx="1367118" cy="481854"/>
+          <a:off x="2548255" y="44023915"/>
+          <a:ext cx="1463040" cy="477520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1992,7 +3470,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -2005,30 +3581,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>470</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="对话气泡: 矩形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECCF6BE-C40C-460B-8248-CDD3CDC6B471}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="对话气泡: 矩形 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448736" y="83069205"/>
-          <a:ext cx="3249706" cy="1210235"/>
+          <a:off x="4736465" y="43794680"/>
+          <a:ext cx="3489325" cy="1199515"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2055,7 +3625,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2084,30 +3752,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>51546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>174813</xdr:colOff>
-      <xdr:row>470</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>6722</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="对话气泡: 矩形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2794405-26D0-4A99-BA46-3324C6D31075}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="对话气泡: 矩形 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4444254" y="83064722"/>
-          <a:ext cx="3249706" cy="1210235"/>
+          <a:off x="4732020" y="43790235"/>
+          <a:ext cx="3489325" cy="1199515"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2134,7 +3796,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2163,30 +3923,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>496</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>499</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="椭圆 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F48E135-8FFA-4CF7-AEE6-C4DD5989A8FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="椭圆 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="89053148"/>
-          <a:ext cx="1546412" cy="549088"/>
+          <a:off x="2429510" y="49729390"/>
+          <a:ext cx="1642110" cy="544195"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2216,7 +3970,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2236,38 +4088,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>556</xdr:row>
-      <xdr:rowOff>25771</xdr:rowOff>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="图片 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABABF403-8A1F-4EE4-9FCD-C9BAD13FCBE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="图片 37"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="90722824"/>
-          <a:ext cx="18285714" cy="8990476"/>
+          <a:off x="1463040" y="51384200"/>
+          <a:ext cx="19532600" cy="8915400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2280,30 +4126,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>589430</xdr:colOff>
-      <xdr:row>535</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>107578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85165</xdr:colOff>
-      <xdr:row>538</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>118784</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="椭圆 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A403B3-5A74-476D-804E-6389876CD359}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="椭圆 38"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7425018" y="96029931"/>
-          <a:ext cx="1546412" cy="549088"/>
+          <a:off x="7904480" y="56647715"/>
+          <a:ext cx="1690370" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2333,7 +4173,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2353,38 +4291,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>558</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>608</xdr:row>
-      <xdr:rowOff>35294</xdr:rowOff>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="图片 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BAC57F-BC33-4458-95EE-519133FCC9EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="图片 39"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="100046118"/>
-          <a:ext cx="18285714" cy="9000000"/>
+          <a:off x="1463040" y="60807600"/>
+          <a:ext cx="19532600" cy="8924925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2397,30 +4329,24 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>565</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>568</xdr:row>
+      <xdr:row>352</xdr:row>
       <xdr:rowOff>179292</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="椭圆 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14BF151-BBB8-4CE7-81BB-E80542F54D8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="椭圆 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12685059" y="101469264"/>
-          <a:ext cx="1053353" cy="549087"/>
+          <a:off x="13548360" y="62219840"/>
+          <a:ext cx="1148715" cy="543560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2450,7 +4376,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2470,38 +4494,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>610</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>341757</xdr:colOff>
-      <xdr:row>681</xdr:row>
-      <xdr:rowOff>70118</xdr:rowOff>
+      <xdr:colOff>341630</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="图片 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAD54B2-65DC-4C20-8AF4-3264FC622E6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="图片 41"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="109369412"/>
-          <a:ext cx="18114286" cy="12800000"/>
+          <a:off x="1463040" y="70053200"/>
+          <a:ext cx="19361150" cy="12693650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2514,30 +4532,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>620</xdr:row>
+      <xdr:row>404</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>622</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="矩形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536409AF-DC18-46A0-8E50-4817D79E6115}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="矩形 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2465294" y="111184765"/>
-          <a:ext cx="862853" cy="437029"/>
+          <a:off x="2608580" y="71853425"/>
+          <a:ext cx="911225" cy="433705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2567,7 +4579,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -2580,30 +4690,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>634</xdr:row>
+      <xdr:row>418</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>637</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="矩形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85CC9E5-86EA-4A52-BF78-7EEA96671B1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="矩形 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2353235" y="113795735"/>
-          <a:ext cx="1367118" cy="481854"/>
+          <a:off x="2496820" y="74443590"/>
+          <a:ext cx="1463040" cy="476885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2633,7 +4737,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -2646,30 +4848,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>392207</xdr:colOff>
-      <xdr:row>661</xdr:row>
+      <xdr:row>445</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>627529</xdr:colOff>
-      <xdr:row>664</xdr:row>
+      <xdr:row>448</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="矩形 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DA5AF1-8E8F-4B65-A4B9-1589B07129DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="矩形 44"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2442883" y="118614264"/>
-          <a:ext cx="7754470" cy="481854"/>
+          <a:off x="2586355" y="79221330"/>
+          <a:ext cx="8282305" cy="477520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,7 +4895,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -2712,30 +5006,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>673</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>676</xdr:row>
+      <xdr:row>460</xdr:row>
       <xdr:rowOff>89645</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="椭圆 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F80FCE3-247B-48FD-8108-E0D0649A0A8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="29" name="椭圆 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2398059" y="120743382"/>
-          <a:ext cx="1053353" cy="549087"/>
+          <a:off x="2541905" y="81332705"/>
+          <a:ext cx="1148715" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2765,7 +5053,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2785,38 +5171,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>685</xdr:row>
+      <xdr:row>469</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>735</xdr:row>
-      <xdr:rowOff>54343</xdr:rowOff>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="图片 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABF7CA5-7D4D-4EA8-97CD-2A813EA214D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="图片 46"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="122637176"/>
-          <a:ext cx="18285714" cy="9019048"/>
+          <a:off x="1463040" y="83388200"/>
+          <a:ext cx="19532600" cy="8943975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2829,30 +5209,24 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>692</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>695</xdr:row>
+      <xdr:row>479</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="椭圆 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E45276-17BB-4FB2-958A-9284EDFCD279}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="31" name="椭圆 47"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12830736" y="124228412"/>
-          <a:ext cx="1467970" cy="549087"/>
+          <a:off x="13693775" y="84789645"/>
+          <a:ext cx="1564005" cy="544195"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2882,7 +5256,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2902,38 +5374,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>738</xdr:row>
+      <xdr:row>522</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>513185</xdr:colOff>
-      <xdr:row>788</xdr:row>
-      <xdr:rowOff>35294</xdr:rowOff>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>572</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="图片 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4AC93FD-E72B-48F5-A8EF-A7248CA76CE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="图片 48"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="132319059"/>
-          <a:ext cx="18285714" cy="9000000"/>
+          <a:off x="1463040" y="92811600"/>
+          <a:ext cx="19532600" cy="8924925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2946,30 +5412,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>752</xdr:row>
+      <xdr:row>536</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>758</xdr:row>
+      <xdr:row>542</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="矩形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE4F385-662C-4D0A-98A4-83327C097B60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="矩形 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="134930030"/>
-          <a:ext cx="3339353" cy="1064558"/>
+          <a:off x="6098540" y="95401130"/>
+          <a:ext cx="3578860" cy="1056005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2999,7 +5459,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -3012,38 +5570,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>792</xdr:row>
+      <xdr:row>576</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>104212</xdr:colOff>
-      <xdr:row>823</xdr:row>
-      <xdr:rowOff>118072</xdr:rowOff>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>607</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="图片 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E563513-F28C-4589-AB38-5B57862DB88B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="图片 51"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="142000941"/>
-          <a:ext cx="8990476" cy="5676190"/>
+          <a:off x="1463040" y="102412800"/>
+          <a:ext cx="9613900" cy="5629275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3056,38 +5608,32 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>825</xdr:row>
+      <xdr:row>609</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>658396</xdr:colOff>
-      <xdr:row>837</xdr:row>
-      <xdr:rowOff>115138</xdr:rowOff>
+      <xdr:colOff>657860</xdr:colOff>
+      <xdr:row>621</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="图片 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B8CDB2-8540-45CA-ABD0-DAD975B6607A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="35" name="图片 52"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="147917647"/>
-          <a:ext cx="4076190" cy="2266667"/>
+          <a:off x="1463040" y="108280200"/>
+          <a:ext cx="4315460" cy="2248535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3100,30 +5646,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>820</xdr:row>
+      <xdr:row>604</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>823</xdr:row>
+      <xdr:row>607</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="椭圆 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6FE054-3813-4082-B542-B882CC774131}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="椭圆 53"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1378324" y="147144442"/>
-          <a:ext cx="1098176" cy="448235"/>
+          <a:off x="1473835" y="107514390"/>
+          <a:ext cx="1146175" cy="443230"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3153,7 +5693,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -3173,30 +5811,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>582704</xdr:colOff>
-      <xdr:row>804</xdr:row>
+      <xdr:row>588</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>808</xdr:row>
+      <xdr:row>592</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="矩形 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08323B30-25DD-43F1-87C6-B77EF8234DF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="矩形 54"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1949822" y="144298149"/>
-          <a:ext cx="1905001" cy="616322"/>
+          <a:off x="2045335" y="104691815"/>
+          <a:ext cx="2049145" cy="610235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3226,7 +5858,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -3239,30 +5969,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>403411</xdr:colOff>
-      <xdr:row>802</xdr:row>
+      <xdr:row>586</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>235323</xdr:colOff>
-      <xdr:row>809</xdr:row>
+      <xdr:row>593</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="对话气泡: 矩形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BBC1D1-B69D-4091-8C9D-1F6B6A76C9BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="38" name="对话气泡: 矩形 55"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4504764" y="143861118"/>
-          <a:ext cx="3249706" cy="1210235"/>
+          <a:off x="4792345" y="104257475"/>
+          <a:ext cx="3489325" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3289,7 +6013,105 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -3300,6 +6122,7 @@
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t>v-root-dbuser-830YamGEDzRTtadBtC</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3310,6 +6133,1678 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
             <a:t>S9-feZPnHtm8baRlls0o</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="711200"/>
+          <a:ext cx="18288000" cy="8420100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="9423400"/>
+          <a:ext cx="18288000" cy="8429625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48260</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="椭圆 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2375535" y="17338675"/>
+          <a:ext cx="1330325" cy="544830"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>458470</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290195</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="对话气泡: 矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4116070" y="13966825"/>
+          <a:ext cx="3489325" cy="1199515"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68505"/>
+            <a:gd name="adj2" fmla="val 49738"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>既存可用的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="18491200"/>
+          <a:ext cx="18288000" cy="8420100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="27381200"/>
+          <a:ext cx="18288000" cy="8410575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="36271200"/>
+          <a:ext cx="7820025" cy="6086475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="42672000"/>
+          <a:ext cx="4038600" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>24130</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="对话气泡: 矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5313045" y="37671375"/>
+          <a:ext cx="3489325" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56344"/>
+            <a:gd name="adj2" fmla="val 27742"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>testuser</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>密码：Teksqc22p5X2-AP0oKyK</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="889000"/>
+          <a:ext cx="18288000" cy="8439150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="9779000"/>
+          <a:ext cx="18288000" cy="8420100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="18491200"/>
+          <a:ext cx="18288000" cy="8429625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>615315</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="对话气泡: 矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3541395" y="20014565"/>
+          <a:ext cx="3489325" cy="815975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56344"/>
+            <a:gd name="adj2" fmla="val 27742"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>说明：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>命令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>vault secrets enable kv</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100"/>
+            <a:t>默认使用的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>path</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>kv</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100"/>
+            <a:t>；更换后无法自动匹配</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Secret Engine</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563245</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>394970</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="对话气泡: 矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4220845" y="23091140"/>
+          <a:ext cx="3489325" cy="815975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54831"/>
+            <a:gd name="adj2" fmla="val 54608"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>说明：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>命令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>vault secrets enable kv</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="ja-JP" sz="1100"/>
+            <a:t>默认使用的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>version</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="zh-CN" sz="1100"/>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="27203400"/>
+          <a:ext cx="18288000" cy="8448675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="36626800"/>
+          <a:ext cx="18288000" cy="8439150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="45516800"/>
+          <a:ext cx="18288000" cy="8429625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="54406800"/>
+          <a:ext cx="18288000" cy="8448675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>328930</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160655</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="对话气泡: 矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6912610" y="55712360"/>
+          <a:ext cx="3489325" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -27174"/>
+            <a:gd name="adj2" fmla="val 72152"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>因为保存的是固定值，并没有与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>同步数据的过程，所以当</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>侧更新了登录用账户密码信息后，需要手动更新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Secret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，否则会无法连接</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3363,7 +7858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3398,7 +7893,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3572,75 +8067,223 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E792"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D107" s="2" t="s">
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E108" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D110" s="2" t="s">
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E111" t="s">
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B685" t="s">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:E112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B792" t="s">
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{1DC0F29E-9D7A-477F-9D7A-AB39F1337C9E}"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://localhost:8200/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:B576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2">
+      <c r="B576" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:C204"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:C205"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>